--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cxcl14</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl14</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.382908333333333</v>
+        <v>1.489659666666667</v>
       </c>
       <c r="H2">
-        <v>7.148724999999999</v>
+        <v>4.468979</v>
       </c>
       <c r="I2">
-        <v>0.0254228216322871</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="J2">
-        <v>0.02542282163228709</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>57.55082649855554</v>
+        <v>41.23537499883633</v>
       </c>
       <c r="R2">
-        <v>517.957438487</v>
+        <v>371.1183749895271</v>
       </c>
       <c r="S2">
-        <v>0.001465622289919499</v>
+        <v>0.0008225024836653618</v>
       </c>
       <c r="T2">
-        <v>0.001465622289919499</v>
+        <v>0.0008225024836653618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.382908333333333</v>
+        <v>1.489659666666667</v>
       </c>
       <c r="H3">
-        <v>7.148724999999999</v>
+        <v>4.468979</v>
       </c>
       <c r="I3">
-        <v>0.0254228216322871</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="J3">
-        <v>0.02542282163228709</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>0.2316282216333333</v>
+        <v>0.1448008782386667</v>
       </c>
       <c r="R3">
-        <v>2.0846539947</v>
+        <v>1.303207904148</v>
       </c>
       <c r="S3">
-        <v>5.898776876970616E-06</v>
+        <v>2.888274497117825E-06</v>
       </c>
       <c r="T3">
-        <v>5.898776876970613E-06</v>
+        <v>2.888274497117825E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.382908333333333</v>
+        <v>1.489659666666667</v>
       </c>
       <c r="H4">
-        <v>7.148724999999999</v>
+        <v>4.468979</v>
       </c>
       <c r="I4">
-        <v>0.0254228216322871</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="J4">
-        <v>0.02542282163228709</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>380.1982916050526</v>
+        <v>405.5846882973674</v>
       </c>
       <c r="R4">
-        <v>3421.784624445474</v>
+        <v>3650.262194676307</v>
       </c>
       <c r="S4">
-        <v>0.00968234732093143</v>
+        <v>0.008090005570960379</v>
       </c>
       <c r="T4">
-        <v>0.009682347320931426</v>
+        <v>0.00809000557096038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.382908333333333</v>
+        <v>1.489659666666667</v>
       </c>
       <c r="H5">
-        <v>7.148724999999999</v>
+        <v>4.468979</v>
       </c>
       <c r="I5">
-        <v>0.0254228216322871</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="J5">
-        <v>0.02542282163228709</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>23.08043866782777</v>
+        <v>17.48140247873155</v>
       </c>
       <c r="R5">
-        <v>207.72394801045</v>
+        <v>157.332622308584</v>
       </c>
       <c r="S5">
-        <v>0.0005877796624438977</v>
+        <v>0.0003486932508099242</v>
       </c>
       <c r="T5">
-        <v>0.0005877796624438975</v>
+        <v>0.0003486932508099242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.382908333333333</v>
+        <v>1.489659666666667</v>
       </c>
       <c r="H6">
-        <v>7.148724999999999</v>
+        <v>4.468979</v>
       </c>
       <c r="I6">
-        <v>0.0254228216322871</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="J6">
-        <v>0.02542282163228709</v>
+        <v>0.01630071701132547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>537.220846418886</v>
+        <v>352.7745832055478</v>
       </c>
       <c r="R6">
-        <v>4834.987617769974</v>
+        <v>3174.97124884993</v>
       </c>
       <c r="S6">
-        <v>0.0136811735821153</v>
+        <v>0.007036627431392685</v>
       </c>
       <c r="T6">
-        <v>0.0136811735821153</v>
+        <v>0.007036627431392686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>266.412155</v>
       </c>
       <c r="I7">
-        <v>0.9474345001714605</v>
+        <v>0.9717452570335143</v>
       </c>
       <c r="J7">
-        <v>0.9474345001714604</v>
+        <v>0.9717452570335144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>2144.751645854511</v>
+        <v>2458.191259272669</v>
       </c>
       <c r="R7">
-        <v>19302.7648126906</v>
+        <v>22123.72133345402</v>
       </c>
       <c r="S7">
-        <v>0.05461947307715552</v>
+        <v>0.04903237611233827</v>
       </c>
       <c r="T7">
-        <v>0.05461947307715551</v>
+        <v>0.04903237611233827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>266.412155</v>
       </c>
       <c r="I8">
-        <v>0.9474345001714605</v>
+        <v>0.9717452570335143</v>
       </c>
       <c r="J8">
-        <v>0.9474345001714604</v>
+        <v>0.9717452570335144</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
         <v>8.632109038206666</v>
@@ -948,10 +948,10 @@
         <v>77.68898134385999</v>
       </c>
       <c r="S8">
-        <v>0.0002198302298183119</v>
+        <v>0.0001721805882302649</v>
       </c>
       <c r="T8">
-        <v>0.0002198302298183118</v>
+        <v>0.0001721805882302649</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>266.412155</v>
       </c>
       <c r="I9">
-        <v>0.9474345001714605</v>
+        <v>0.9717452570335143</v>
       </c>
       <c r="J9">
-        <v>0.9474345001714604</v>
+        <v>0.9717452570335144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>14168.8827299722</v>
+        <v>24178.38411062235</v>
       </c>
       <c r="R9">
-        <v>127519.9445697498</v>
+        <v>217605.4569956011</v>
       </c>
       <c r="S9">
-        <v>0.3608328779226812</v>
+        <v>0.4822747697229189</v>
       </c>
       <c r="T9">
-        <v>0.3608328779226811</v>
+        <v>0.4822747697229189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>266.412155</v>
       </c>
       <c r="I10">
-        <v>0.9474345001714605</v>
+        <v>0.9717452570335143</v>
       </c>
       <c r="J10">
-        <v>0.9474345001714604</v>
+        <v>0.9717452570335144</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>860.1407109437456</v>
+        <v>1042.130228578209</v>
       </c>
       <c r="R10">
-        <v>7741.26639849371</v>
+        <v>9379.172057203879</v>
       </c>
       <c r="S10">
-        <v>0.02190483569263769</v>
+        <v>0.02078687780413097</v>
       </c>
       <c r="T10">
-        <v>0.02190483569263768</v>
+        <v>0.02078687780413097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>266.412155</v>
       </c>
       <c r="I11">
-        <v>0.9474345001714605</v>
+        <v>0.9717452570335143</v>
       </c>
       <c r="J11">
-        <v>0.9474345001714604</v>
+        <v>0.9717452570335144</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N11">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O11">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P11">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q11">
-        <v>20020.65590792477</v>
+        <v>21030.1809296971</v>
       </c>
       <c r="R11">
-        <v>180185.9031713229</v>
+        <v>189271.6283672738</v>
       </c>
       <c r="S11">
-        <v>0.5098574832491678</v>
+        <v>0.4194790528058959</v>
       </c>
       <c r="T11">
-        <v>0.5098574832491677</v>
+        <v>0.419479052805896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.302294333333333</v>
+        <v>0.456776</v>
       </c>
       <c r="H12">
-        <v>3.906883</v>
+        <v>1.370328</v>
       </c>
       <c r="I12">
-        <v>0.0138939446750595</v>
+        <v>0.004998306982578259</v>
       </c>
       <c r="J12">
-        <v>0.0138939446750595</v>
+        <v>0.00499830698257826</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N12">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q12">
-        <v>31.45237027346222</v>
+        <v>12.644048887096</v>
       </c>
       <c r="R12">
-        <v>283.07133246116</v>
+        <v>113.796439983864</v>
       </c>
       <c r="S12">
-        <v>0.0008009840648377946</v>
+        <v>0.0002522048511385236</v>
       </c>
       <c r="T12">
-        <v>0.0008009840648377943</v>
+        <v>0.0002522048511385236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.302294333333333</v>
+        <v>0.456776</v>
       </c>
       <c r="H13">
-        <v>3.906883</v>
+        <v>1.370328</v>
       </c>
       <c r="I13">
-        <v>0.0138939446750595</v>
+        <v>0.004998306982578259</v>
       </c>
       <c r="J13">
-        <v>0.0138939446750595</v>
+        <v>0.00499830698257826</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P13">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q13">
-        <v>0.1265882183773333</v>
+        <v>0.044400454304</v>
       </c>
       <c r="R13">
-        <v>1.139293965396</v>
+        <v>0.399604088736</v>
       </c>
       <c r="S13">
-        <v>3.223768028764512E-06</v>
+        <v>8.856348206349763E-07</v>
       </c>
       <c r="T13">
-        <v>3.223768028764511E-06</v>
+        <v>8.856348206349763E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.302294333333333</v>
+        <v>0.456776</v>
       </c>
       <c r="H14">
-        <v>3.906883</v>
+        <v>1.370328</v>
       </c>
       <c r="I14">
-        <v>0.0138939446750595</v>
+        <v>0.004998306982578259</v>
       </c>
       <c r="J14">
-        <v>0.0138939446750595</v>
+        <v>0.00499830698257826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N14">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O14">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P14">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q14">
-        <v>207.783939387908</v>
+        <v>124.3648839578693</v>
       </c>
       <c r="R14">
-        <v>1870.055454491173</v>
+        <v>1119.283955620824</v>
       </c>
       <c r="S14">
-        <v>0.005291544736752714</v>
+        <v>0.002480647403812592</v>
       </c>
       <c r="T14">
-        <v>0.005291544736752712</v>
+        <v>0.002480647403812593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.302294333333333</v>
+        <v>0.456776</v>
       </c>
       <c r="H15">
-        <v>3.906883</v>
+        <v>1.370328</v>
       </c>
       <c r="I15">
-        <v>0.0138939446750595</v>
+        <v>0.004998306982578259</v>
       </c>
       <c r="J15">
-        <v>0.0138939446750595</v>
+        <v>0.00499830698257826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N15">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O15">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P15">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q15">
-        <v>12.61379804984511</v>
+        <v>5.360341880298667</v>
       </c>
       <c r="R15">
-        <v>113.524182448606</v>
+        <v>48.243076922688</v>
       </c>
       <c r="S15">
-        <v>0.0003212302013223061</v>
+        <v>0.0001069201992213125</v>
       </c>
       <c r="T15">
-        <v>0.0003212302013223059</v>
+        <v>0.0001069201992213125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.302294333333333</v>
+        <v>0.456776</v>
       </c>
       <c r="H16">
-        <v>3.906883</v>
+        <v>1.370328</v>
       </c>
       <c r="I16">
-        <v>0.0138939446750595</v>
+        <v>0.004998306982578259</v>
       </c>
       <c r="J16">
-        <v>0.0138939446750595</v>
+        <v>0.00499830698257826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N16">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O16">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P16">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q16">
-        <v>293.5990672629814</v>
+        <v>108.1716627119733</v>
       </c>
       <c r="R16">
-        <v>2642.391605366833</v>
+        <v>973.5449644077601</v>
       </c>
       <c r="S16">
-        <v>0.007476961904117919</v>
+        <v>0.002157648893585196</v>
       </c>
       <c r="T16">
-        <v>0.007476961904117917</v>
+        <v>0.002157648893585196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6190613333333334</v>
+        <v>0.6356563333333334</v>
       </c>
       <c r="H17">
-        <v>1.857184</v>
+        <v>1.906969</v>
       </c>
       <c r="I17">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581952</v>
       </c>
       <c r="J17">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581954</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N17">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q17">
-        <v>14.95126391907556</v>
+        <v>17.59564809459967</v>
       </c>
       <c r="R17">
-        <v>134.56137527168</v>
+        <v>158.360832851397</v>
       </c>
       <c r="S17">
-        <v>0.0003807574451222918</v>
+        <v>0.0003509720539686697</v>
       </c>
       <c r="T17">
-        <v>0.0003807574451222917</v>
+        <v>0.0003509720539686697</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6190613333333334</v>
+        <v>0.6356563333333334</v>
       </c>
       <c r="H18">
-        <v>1.857184</v>
+        <v>1.906969</v>
       </c>
       <c r="I18">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581952</v>
       </c>
       <c r="J18">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581954</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.291612</v>
       </c>
       <c r="O18">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P18">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q18">
-        <v>0.06017523784533334</v>
+        <v>0.06178833822533333</v>
       </c>
       <c r="R18">
-        <v>0.541577140608</v>
+        <v>0.556095044028</v>
       </c>
       <c r="S18">
-        <v>1.532457051499365E-06</v>
+        <v>1.232462701098905E-06</v>
       </c>
       <c r="T18">
-        <v>1.532457051499365E-06</v>
+        <v>1.232462701098905E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6190613333333334</v>
+        <v>0.6356563333333334</v>
       </c>
       <c r="H19">
-        <v>1.857184</v>
+        <v>1.906969</v>
       </c>
       <c r="I19">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581952</v>
       </c>
       <c r="J19">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581954</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N19">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O19">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P19">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q19">
-        <v>98.77260406523376</v>
+        <v>173.0680380144419</v>
       </c>
       <c r="R19">
-        <v>888.953436587104</v>
+        <v>1557.612342129977</v>
       </c>
       <c r="S19">
-        <v>0.002515399672931427</v>
+        <v>0.003452106137363533</v>
       </c>
       <c r="T19">
-        <v>0.002515399672931427</v>
+        <v>0.003452106137363534</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6190613333333334</v>
+        <v>0.6356563333333334</v>
       </c>
       <c r="H20">
-        <v>1.857184</v>
+        <v>1.906969</v>
       </c>
       <c r="I20">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581952</v>
       </c>
       <c r="J20">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581954</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N20">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O20">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P20">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q20">
-        <v>5.996121183409779</v>
+        <v>7.459532166847112</v>
       </c>
       <c r="R20">
-        <v>53.965090650688</v>
+        <v>67.135789501624</v>
       </c>
       <c r="S20">
-        <v>0.0001527006542587955</v>
+        <v>0.0001487917530612138</v>
       </c>
       <c r="T20">
-        <v>0.0001527006542587955</v>
+        <v>0.0001487917530612138</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6190613333333334</v>
+        <v>0.6356563333333334</v>
       </c>
       <c r="H21">
-        <v>1.857184</v>
+        <v>1.906969</v>
       </c>
       <c r="I21">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581952</v>
       </c>
       <c r="J21">
-        <v>0.006604654336309969</v>
+        <v>0.006955718972581954</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N21">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O21">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P21">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q21">
-        <v>139.5658611060871</v>
+        <v>150.5333084270256</v>
       </c>
       <c r="R21">
-        <v>1256.092749954784</v>
+        <v>1354.79977584323</v>
       </c>
       <c r="S21">
-        <v>0.003554264106945956</v>
+        <v>0.003002616565487436</v>
       </c>
       <c r="T21">
-        <v>0.003554264106945955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.6227566666666667</v>
-      </c>
-      <c r="H22">
-        <v>1.86827</v>
-      </c>
-      <c r="I22">
-        <v>0.006644079184883042</v>
-      </c>
-      <c r="J22">
-        <v>0.006644079184883041</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>24.15150666666667</v>
-      </c>
-      <c r="N22">
-        <v>72.45452</v>
-      </c>
-      <c r="O22">
-        <v>0.05764986715944041</v>
-      </c>
-      <c r="P22">
-        <v>0.05764986715944041</v>
-      </c>
-      <c r="Q22">
-        <v>15.04051178671111</v>
-      </c>
-      <c r="R22">
-        <v>135.3646060804</v>
-      </c>
-      <c r="S22">
-        <v>0.0003830302824053105</v>
-      </c>
-      <c r="T22">
-        <v>0.0003830302824053104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.6227566666666667</v>
-      </c>
-      <c r="H23">
-        <v>1.86827</v>
-      </c>
-      <c r="I23">
-        <v>0.006644079184883042</v>
-      </c>
-      <c r="J23">
-        <v>0.006644079184883041</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.097204</v>
-      </c>
-      <c r="N23">
-        <v>0.291612</v>
-      </c>
-      <c r="O23">
-        <v>0.0002320268364499377</v>
-      </c>
-      <c r="P23">
-        <v>0.0002320268364499376</v>
-      </c>
-      <c r="Q23">
-        <v>0.06053443902666667</v>
-      </c>
-      <c r="R23">
-        <v>0.54480995124</v>
-      </c>
-      <c r="S23">
-        <v>1.541604674391293E-06</v>
-      </c>
-      <c r="T23">
-        <v>1.541604674391292E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.6227566666666667</v>
-      </c>
-      <c r="H24">
-        <v>1.86827</v>
-      </c>
-      <c r="I24">
-        <v>0.006644079184883042</v>
-      </c>
-      <c r="J24">
-        <v>0.006644079184883041</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>159.5522103333333</v>
-      </c>
-      <c r="N24">
-        <v>478.6566309999999</v>
-      </c>
-      <c r="O24">
-        <v>0.3808525843816961</v>
-      </c>
-      <c r="P24">
-        <v>0.380852584381696</v>
-      </c>
-      <c r="Q24">
-        <v>99.36220266648554</v>
-      </c>
-      <c r="R24">
-        <v>894.2598239983699</v>
-      </c>
-      <c r="S24">
-        <v>0.002530414728399339</v>
-      </c>
-      <c r="T24">
-        <v>0.002530414728399338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.6227566666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.86827</v>
-      </c>
-      <c r="I25">
-        <v>0.006644079184883042</v>
-      </c>
-      <c r="J25">
-        <v>0.006644079184883041</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.685827333333334</v>
-      </c>
-      <c r="N25">
-        <v>29.057482</v>
-      </c>
-      <c r="O25">
-        <v>0.02312015837366435</v>
-      </c>
-      <c r="P25">
-        <v>0.02312015837366434</v>
-      </c>
-      <c r="Q25">
-        <v>6.031913544015556</v>
-      </c>
-      <c r="R25">
-        <v>54.28722189614</v>
-      </c>
-      <c r="S25">
-        <v>0.0001536121630016627</v>
-      </c>
-      <c r="T25">
-        <v>0.0001536121630016626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.6227566666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.86827</v>
-      </c>
-      <c r="I26">
-        <v>0.006644079184883042</v>
-      </c>
-      <c r="J26">
-        <v>0.006644079184883041</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>225.4475503333333</v>
-      </c>
-      <c r="N26">
-        <v>676.342651</v>
-      </c>
-      <c r="O26">
-        <v>0.5381453632487493</v>
-      </c>
-      <c r="P26">
-        <v>0.5381453632487492</v>
-      </c>
-      <c r="Q26">
-        <v>140.3989649537523</v>
-      </c>
-      <c r="R26">
-        <v>1263.59068458377</v>
-      </c>
-      <c r="S26">
-        <v>0.003575480406402339</v>
-      </c>
-      <c r="T26">
-        <v>0.003575480406402337</v>
+        <v>0.003002616565487437</v>
       </c>
     </row>
   </sheetData>
